--- a/gift_pdf_field_dictionary.xlsx
+++ b/gift_pdf_field_dictionary.xlsx
@@ -1619,13 +1619,12 @@
   <dimension ref="A1:B213"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="A3" sqref="A3:B213"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.5703125" customWidth="1"/>
-    <col min="2" max="2" width="15.85546875" customWidth="1"/>
+    <col min="1" max="2" width="16.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
